--- a/2. extension/MSE.xlsx
+++ b/2. extension/MSE.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,45 +360,60 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>adaElNet.rda</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>adaLASSO.rda</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>AR.rda</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Bagging.rda</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>BVAR.rda</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ElNet.rda</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Factor.rda</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LASSO.rda</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RF.rda</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ridge.rda</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rwe</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>is_min</t>
         </is>
@@ -406,30 +421,39 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>0.3940410780078286</v>
+      </c>
+      <c r="B2">
+        <v>0.4689112935245749</v>
+      </c>
+      <c r="C2">
         <v>1.014179876180115</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>1.610285763078823</v>
+      </c>
+      <c r="E2">
         <v>1.009081807912844</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>0.1185935989866265</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>0.8498931977627335</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>0.4689112935245749</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>1.268148702726388</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>2.838732617552718</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>ElNet.rda</t>
         </is>
@@ -437,61 +461,79 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>0.6920332484712075</v>
+      </c>
+      <c r="B3">
+        <v>0.6975354004934629</v>
+      </c>
+      <c r="C3">
         <v>1.03935597581873</v>
       </c>
-      <c r="B3">
+      <c r="D3">
+        <v>2.058104016571404</v>
+      </c>
+      <c r="E3">
         <v>1.007872732175663</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>0.7937121205453901</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>0.8991013565468748</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0.6975354004934629</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.205726407874463</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>1.876972887694411</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>LASSO.rda</t>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>adaElNet.rda</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>1.351031123487861</v>
+      </c>
+      <c r="B4">
+        <v>1.108989142480988</v>
+      </c>
+      <c r="C4">
         <v>1.04584632248948</v>
       </c>
-      <c r="B4">
+      <c r="D4">
+        <v>8.128251255437059</v>
+      </c>
+      <c r="E4">
         <v>1.008082204649097</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>1.378823171933604</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>0.9247455086596393</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.108989142480988</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>1.162189548753487</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>1.449173168907063</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -499,30 +541,39 @@
     </row>
     <row r="5">
       <c r="A5">
+        <v>1.540082641358833</v>
+      </c>
+      <c r="B5">
+        <v>1.947062380215408</v>
+      </c>
+      <c r="C5">
         <v>1.03873392260284</v>
       </c>
-      <c r="B5">
+      <c r="D5">
+        <v>14.9058816478607</v>
+      </c>
+      <c r="E5">
         <v>1.012363683928632</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>1.48446043934615</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>0.9552547470842607</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.947062380215408</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.099176962496106</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>1.263181811048189</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -530,30 +581,39 @@
     </row>
     <row r="6">
       <c r="A6">
+        <v>1.525547117580886</v>
+      </c>
+      <c r="B6">
+        <v>1.87568189741982</v>
+      </c>
+      <c r="C6">
         <v>1.032627207108617</v>
       </c>
-      <c r="B6">
+      <c r="D6">
+        <v>8.061580607614122</v>
+      </c>
+      <c r="E6">
         <v>1.002687738900705</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>1.400886673916358</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>0.9478031710488689</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.87568189741982</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.015554983938629</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>1.144178056024305</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -561,30 +621,39 @@
     </row>
     <row r="7">
       <c r="A7">
+        <v>1.244813835213891</v>
+      </c>
+      <c r="B7">
+        <v>0.9802832858329533</v>
+      </c>
+      <c r="C7">
         <v>1.012275129548876</v>
       </c>
-      <c r="B7">
+      <c r="D7">
+        <v>8.71332659043909</v>
+      </c>
+      <c r="E7">
         <v>0.9985254555171406</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1.251009125158686</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>0.9212059312959751</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>0.9802832858329533</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>0.9595878669060453</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>1.039048998268115</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -592,30 +661,39 @@
     </row>
     <row r="8">
       <c r="A8">
+        <v>1.252143345390036</v>
+      </c>
+      <c r="B8">
+        <v>2.112249767204531</v>
+      </c>
+      <c r="C8">
         <v>0.9892369775586294</v>
       </c>
-      <c r="B8">
+      <c r="D8">
+        <v>14.33045024803857</v>
+      </c>
+      <c r="E8">
         <v>0.9810540480831118</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>1.109422693689709</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>0.9011379787240199</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>2.112249767204531</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>0.9263742076452458</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>0.9829384840463259</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -623,30 +701,39 @@
     </row>
     <row r="9">
       <c r="A9">
+        <v>1.305546118536743</v>
+      </c>
+      <c r="B9">
+        <v>2.332886104962545</v>
+      </c>
+      <c r="C9">
         <v>0.9685946053950704</v>
       </c>
-      <c r="B9">
+      <c r="D9">
+        <v>12.91985842574125</v>
+      </c>
+      <c r="E9">
         <v>0.9668971255002915</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>1.036357401128993</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>0.8903674635749895</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>2.332886104962545</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>0.9023418253890225</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>0.968379503355048</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -654,30 +741,39 @@
     </row>
     <row r="10">
       <c r="A10">
+        <v>1.387596500649728</v>
+      </c>
+      <c r="B10">
+        <v>2.40832152285226</v>
+      </c>
+      <c r="C10">
         <v>0.958517839279336</v>
       </c>
-      <c r="B10">
+      <c r="D10">
+        <v>20.31849614071441</v>
+      </c>
+      <c r="E10">
         <v>0.9634894338189317</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>1.055530003814771</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>0.8863819589780665</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>2.40832152285226</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>0.8963804969913723</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>0.9504629537893287</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -685,30 +781,39 @@
     </row>
     <row r="11">
       <c r="A11">
+        <v>1.503780537850173</v>
+      </c>
+      <c r="B11">
+        <v>2.294474299333698</v>
+      </c>
+      <c r="C11">
         <v>0.946889358742395</v>
       </c>
-      <c r="B11">
+      <c r="D11">
+        <v>12.67996507562281</v>
+      </c>
+      <c r="E11">
         <v>0.9556635614890182</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>1.202933295223012</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>0.871710600519935</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>2.294474299333698</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>0.9008641280691973</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>0.8756869909113432</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -716,30 +821,39 @@
     </row>
     <row r="12">
       <c r="A12">
+        <v>0.9071408788941491</v>
+      </c>
+      <c r="B12">
+        <v>0.9166718825939803</v>
+      </c>
+      <c r="C12">
         <v>0.9406273588192556</v>
       </c>
-      <c r="B12">
+      <c r="D12">
+        <v>0.8918508317236936</v>
+      </c>
+      <c r="E12">
         <v>0.9435422041965391</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>0.8793436643158359</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>0.860892778611014</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>0.9166718825939803</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>0.8973703801442274</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>0.8295430009453912</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Ridge.rda</t>
         </is>
@@ -747,30 +861,39 @@
     </row>
     <row r="13">
       <c r="A13">
+        <v>0.8809580678403913</v>
+      </c>
+      <c r="B13">
+        <v>0.8878802681164989</v>
+      </c>
+      <c r="C13">
         <v>0.9384045810165905</v>
       </c>
-      <c r="B13">
+      <c r="D13">
+        <v>0.8867136886400678</v>
+      </c>
+      <c r="E13">
         <v>0.9285249664820698</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>0.8687650856712619</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>0.8629104147600527</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.8878802681164989</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.8999008151357532</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>0.8223466981685359</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Ridge.rda</t>
         </is>
@@ -778,30 +901,39 @@
     </row>
     <row r="14">
       <c r="A14">
+        <v>0.4352647192392796</v>
+      </c>
+      <c r="B14">
+        <v>0.3284832075992262</v>
+      </c>
+      <c r="C14">
         <v>0.4381045413668696</v>
       </c>
-      <c r="B14">
+      <c r="D14">
+        <v>2.915736752168859</v>
+      </c>
+      <c r="E14">
         <v>0.4125423079541368</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>0.4871211259766258</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>0.3175350983041208</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.3284832075992262</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.7358773741311826</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>1.457932485908559</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -809,30 +941,39 @@
     </row>
     <row r="15">
       <c r="A15">
+        <v>0.5546924890594682</v>
+      </c>
+      <c r="B15">
+        <v>0.4645075066502123</v>
+      </c>
+      <c r="C15">
         <v>0.3230292401897588</v>
       </c>
-      <c r="B15">
+      <c r="D15">
+        <v>2.299579004702841</v>
+      </c>
+      <c r="E15">
         <v>0.2959647118365575</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>0.5167448737510462</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>0.2282526381611316</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.4645075066502123</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.4827826722447965</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>0.8781823608001469</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -840,30 +981,39 @@
     </row>
     <row r="16">
       <c r="A16">
+        <v>0.489749808112266</v>
+      </c>
+      <c r="B16">
+        <v>0.5737512773624782</v>
+      </c>
+      <c r="C16">
         <v>0.3930363793267868</v>
       </c>
-      <c r="B16">
+      <c r="D16">
+        <v>3.234462745273322</v>
+      </c>
+      <c r="E16">
         <v>0.3719294530039757</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>0.4966954556579376</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>0.2893792565596126</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>0.5737512773624782</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>0.3631436658150651</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>0.6449768625428509</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -871,30 +1021,39 @@
     </row>
     <row r="17">
       <c r="A17">
+        <v>0.7461356800379499</v>
+      </c>
+      <c r="B17">
+        <v>0.9026845114278299</v>
+      </c>
+      <c r="C17">
         <v>0.5862360762141031</v>
       </c>
-      <c r="B17">
+      <c r="D17">
+        <v>5.164622747701254</v>
+      </c>
+      <c r="E17">
         <v>0.568182841369382</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>0.7012034447749392</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>0.4889092115213509</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>0.9026845114278299</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>0.6082166949739957</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>0.8708662401542333</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -902,30 +1061,39 @@
     </row>
     <row r="18">
       <c r="A18">
+        <v>1.540082641358833</v>
+      </c>
+      <c r="B18">
+        <v>2.40832152285226</v>
+      </c>
+      <c r="C18">
         <v>1.04584632248948</v>
       </c>
-      <c r="B18">
+      <c r="D18">
+        <v>20.31849614071441</v>
+      </c>
+      <c r="E18">
         <v>1.012363683928632</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>1.48446043934615</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>0.9552547470842607</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>2.40832152285226</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>1.268148702726388</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>2.838732617552718</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -933,30 +1101,39 @@
     </row>
     <row r="19">
       <c r="A19">
+        <v>0.3940410780078286</v>
+      </c>
+      <c r="B19">
+        <v>0.3284832075992262</v>
+      </c>
+      <c r="C19">
         <v>0.3230292401897588</v>
       </c>
-      <c r="B19">
+      <c r="D19">
+        <v>0.8867136886400678</v>
+      </c>
+      <c r="E19">
         <v>0.2959647118365575</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>0.1185935989866265</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>0.2282526381611316</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>0.3284832075992262</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>0.3631436658150651</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>0.6449768625428509</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>ElNet.rda</t>
         </is>

--- a/2. extension/MSE.xlsx
+++ b/2. extension/MSE.xlsx
@@ -1,21 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeann\OneDrive\Documents\scolaire\ENSAE\3A\S1\macroeconometrics and ML\project\Macroeconometrics-and-Machine-Learning-Project\2. extension\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB51D26F-A2D3-40FD-909C-AA97034FED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10125" yWindow="105" windowWidth="10185" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+  <si>
+    <t>adaElNet.rda</t>
+  </si>
+  <si>
+    <t>adaLASSO.rda</t>
+  </si>
+  <si>
+    <t>AR.rda</t>
+  </si>
+  <si>
+    <t>Bagging.rda</t>
+  </si>
+  <si>
+    <t>BVAR.rda</t>
+  </si>
+  <si>
+    <t>CSR.rda</t>
+  </si>
+  <si>
+    <t>ElNet.rda</t>
+  </si>
+  <si>
+    <t>Factor.rda</t>
+  </si>
+  <si>
+    <t>LASSO.rda</t>
+  </si>
+  <si>
+    <t>RF.rda</t>
+  </si>
+  <si>
+    <t>RFOLS.rda</t>
+  </si>
+  <si>
+    <t>Ridge.rda</t>
+  </si>
+  <si>
+    <t>rwe</t>
+  </si>
+  <si>
+    <t>is_min</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +101,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +212,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +264,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,436 +457,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>adaElNet.rda</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>adaLASSO.rda</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AR.rda</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bagging.rda</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BVAR.rda</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>LASSO.rda</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RF.rda</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ridge.rda</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rwe</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>is_min</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.3940410780078286</v>
+        <v>0.39404107800782862</v>
       </c>
       <c r="B2">
-        <v>0.4689112935245749</v>
+        <v>0.46891129352457489</v>
       </c>
       <c r="C2">
-        <v>1.014179876180115</v>
+        <v>1.0141798761801151</v>
       </c>
       <c r="D2">
-        <v>1.610285763078823</v>
+        <v>0.69629025414949874</v>
       </c>
       <c r="E2">
-        <v>1.009081807912844</v>
+        <v>1.0090818079128441</v>
       </c>
       <c r="F2">
+        <v>0.64233653034389593</v>
+      </c>
+      <c r="G2">
         <v>0.1185935989866265</v>
       </c>
-      <c r="G2">
-        <v>0.8498931977627335</v>
-      </c>
       <c r="H2">
-        <v>0.4689112935245749</v>
+        <v>0.84989319776273353</v>
       </c>
       <c r="I2">
+        <v>0.11022913107047989</v>
+      </c>
+      <c r="J2">
         <v>1.268148702726388</v>
       </c>
-      <c r="J2">
-        <v>2.838732617552718</v>
-      </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.29974049367745609</v>
+      </c>
+      <c r="L2">
+        <v>2.8387326175527181</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.6920332484712075</v>
+        <v>0.69203324847120751</v>
       </c>
       <c r="B3">
-        <v>0.6975354004934629</v>
+        <v>0.69753540049346285</v>
       </c>
       <c r="C3">
-        <v>1.03935597581873</v>
+        <v>1.0393559758187301</v>
       </c>
       <c r="D3">
-        <v>2.058104016571404</v>
+        <v>2.1814675878434828</v>
       </c>
       <c r="E3">
-        <v>1.007872732175663</v>
+        <v>1.0078727321756631</v>
       </c>
       <c r="F3">
-        <v>0.7937121205453901</v>
+        <v>1.0258097504235431</v>
       </c>
       <c r="G3">
-        <v>0.8991013565468748</v>
+        <v>0.79371212054539009</v>
       </c>
       <c r="H3">
-        <v>0.6975354004934629</v>
+        <v>0.89910135654687484</v>
       </c>
       <c r="I3">
-        <v>1.205726407874463</v>
+        <v>0.71807061333341315</v>
       </c>
       <c r="J3">
+        <v>1.2057264078744629</v>
+      </c>
+      <c r="K3">
+        <v>1.1625227101282569</v>
+      </c>
+      <c r="L3">
         <v>1.876972887694411</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>adaElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.351031123487861</v>
+        <v>1.3510311234878609</v>
       </c>
       <c r="B4">
-        <v>1.108989142480988</v>
+        <v>1.1089891424809879</v>
       </c>
       <c r="C4">
-        <v>1.04584632248948</v>
+        <v>1.0458463224894801</v>
       </c>
       <c r="D4">
-        <v>8.128251255437059</v>
+        <v>4.7939393771652341</v>
       </c>
       <c r="E4">
-        <v>1.008082204649097</v>
+        <v>1.0080822046490969</v>
       </c>
       <c r="F4">
-        <v>1.378823171933604</v>
+        <v>1.2605668482600649</v>
       </c>
       <c r="G4">
-        <v>0.9247455086596393</v>
+        <v>1.3788231719336039</v>
       </c>
       <c r="H4">
-        <v>1.108989142480988</v>
+        <v>0.92474550865963934</v>
       </c>
       <c r="I4">
+        <v>1.3550190625252561</v>
+      </c>
+      <c r="J4">
         <v>1.162189548753487</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>1.8460906698517361</v>
+      </c>
+      <c r="L4">
         <v>1.449173168907063</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.540082641358833</v>
+        <v>1.5400826413588331</v>
       </c>
       <c r="B5">
-        <v>1.947062380215408</v>
+        <v>1.9470623802154079</v>
       </c>
       <c r="C5">
         <v>1.03873392260284</v>
       </c>
       <c r="D5">
-        <v>14.9058816478607</v>
+        <v>7.609318013681535</v>
       </c>
       <c r="E5">
-        <v>1.012363683928632</v>
+        <v>1.0123636839286321</v>
       </c>
       <c r="F5">
+        <v>1.4091615766749741</v>
+      </c>
+      <c r="G5">
         <v>1.48446043934615</v>
       </c>
-      <c r="G5">
-        <v>0.9552547470842607</v>
-      </c>
       <c r="H5">
-        <v>1.947062380215408</v>
+        <v>0.95525474708426072</v>
       </c>
       <c r="I5">
-        <v>1.099176962496106</v>
+        <v>1.7340058299722829</v>
       </c>
       <c r="J5">
-        <v>1.263181811048189</v>
+        <v>1.0991769624961061</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+        <v>2.2570123278761729</v>
+      </c>
+      <c r="L5">
+        <v>1.2631818110481889</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.525547117580886</v>
+        <v>1.5255471175808859</v>
       </c>
       <c r="B6">
-        <v>1.87568189741982</v>
+        <v>1.8756818974198199</v>
       </c>
       <c r="C6">
-        <v>1.032627207108617</v>
+        <v>1.0326272071086171</v>
       </c>
       <c r="D6">
-        <v>8.061580607614122</v>
+        <v>10.494900232437921</v>
       </c>
       <c r="E6">
         <v>1.002687738900705</v>
       </c>
       <c r="F6">
-        <v>1.400886673916358</v>
+        <v>1.412008728628944</v>
       </c>
       <c r="G6">
-        <v>0.9478031710488689</v>
+        <v>1.4008866739163579</v>
       </c>
       <c r="H6">
-        <v>1.87568189741982</v>
+        <v>0.94780317104886891</v>
       </c>
       <c r="I6">
-        <v>1.015554983938629</v>
+        <v>1.5707751696657719</v>
       </c>
       <c r="J6">
-        <v>1.144178056024305</v>
+        <v>1.0155549839386291</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+        <v>2.300702289113751</v>
+      </c>
+      <c r="L6">
+        <v>1.1441780560243049</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.244813835213891</v>
+        <v>1.2448138352138911</v>
       </c>
       <c r="B7">
-        <v>0.9802832858329533</v>
+        <v>0.98028328583295332</v>
       </c>
       <c r="C7">
-        <v>1.012275129548876</v>
+        <v>1.0122751295488761</v>
       </c>
       <c r="D7">
-        <v>8.71332659043909</v>
+        <v>11.00544351433971</v>
       </c>
       <c r="E7">
-        <v>0.9985254555171406</v>
+        <v>0.99852545551714056</v>
       </c>
       <c r="F7">
-        <v>1.251009125158686</v>
+        <v>1.3130356352050649</v>
       </c>
       <c r="G7">
-        <v>0.9212059312959751</v>
+        <v>1.2510091251586859</v>
       </c>
       <c r="H7">
-        <v>0.9802832858329533</v>
+        <v>0.92120593129597506</v>
       </c>
       <c r="I7">
-        <v>0.9595878669060453</v>
+        <v>0.96032045320249226</v>
       </c>
       <c r="J7">
+        <v>0.95958786690604525</v>
+      </c>
+      <c r="K7">
+        <v>2.2199223968506461</v>
+      </c>
+      <c r="L7">
         <v>1.039048998268115</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.252143345390036</v>
+        <v>1.2521433453900359</v>
       </c>
       <c r="B8">
-        <v>2.112249767204531</v>
+        <v>2.1122497672045308</v>
       </c>
       <c r="C8">
-        <v>0.9892369775586294</v>
+        <v>0.98923697755862938</v>
       </c>
       <c r="D8">
-        <v>14.33045024803857</v>
+        <v>15.072778979281781</v>
       </c>
       <c r="E8">
-        <v>0.9810540480831118</v>
+        <v>0.98105404808311181</v>
       </c>
       <c r="F8">
-        <v>1.109422693689709</v>
+        <v>1.330834776065432</v>
       </c>
       <c r="G8">
-        <v>0.9011379787240199</v>
+        <v>1.1094226936897089</v>
       </c>
       <c r="H8">
-        <v>2.112249767204531</v>
+        <v>0.90113797872401991</v>
       </c>
       <c r="I8">
-        <v>0.9263742076452458</v>
+        <v>1.614496757826295</v>
       </c>
       <c r="J8">
-        <v>0.9829384840463259</v>
+        <v>0.92637420764524581</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+        <v>2.021251080806922</v>
+      </c>
+      <c r="L8">
+        <v>0.98293848404632589</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.305546118536743</v>
       </c>
       <c r="B9">
-        <v>2.332886104962545</v>
+        <v>2.3328861049625451</v>
       </c>
       <c r="C9">
-        <v>0.9685946053950704</v>
+        <v>0.96859460539507036</v>
       </c>
       <c r="D9">
-        <v>12.91985842574125</v>
+        <v>11.91552614032952</v>
       </c>
       <c r="E9">
         <v>0.9668971255002915</v>
       </c>
       <c r="F9">
-        <v>1.036357401128993</v>
+        <v>1.3681025939671949</v>
       </c>
       <c r="G9">
-        <v>0.8903674635749895</v>
+        <v>1.0363574011289931</v>
       </c>
       <c r="H9">
-        <v>2.332886104962545</v>
+        <v>0.89036746357498953</v>
       </c>
       <c r="I9">
-        <v>0.9023418253890225</v>
+        <v>1.6399285020766681</v>
       </c>
       <c r="J9">
-        <v>0.968379503355048</v>
+        <v>0.90234182538902252</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+        <v>2.2195367120643672</v>
+      </c>
+      <c r="L9">
+        <v>0.96837950335504797</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.387596500649728</v>
+        <v>1.3875965006497279</v>
       </c>
       <c r="B10">
-        <v>2.40832152285226</v>
+        <v>2.4083215228522601</v>
       </c>
       <c r="C10">
-        <v>0.958517839279336</v>
+        <v>0.95851783927933598</v>
       </c>
       <c r="D10">
-        <v>20.31849614071441</v>
+        <v>20.578580564609041</v>
       </c>
       <c r="E10">
-        <v>0.9634894338189317</v>
+        <v>0.96348943381893171</v>
       </c>
       <c r="F10">
+        <v>1.338012291668355</v>
+      </c>
+      <c r="G10">
         <v>1.055530003814771</v>
       </c>
-      <c r="G10">
-        <v>0.8863819589780665</v>
-      </c>
       <c r="H10">
-        <v>2.40832152285226</v>
+        <v>0.88638195897806649</v>
       </c>
       <c r="I10">
-        <v>0.8963804969913723</v>
+        <v>1.6957662739184349</v>
       </c>
       <c r="J10">
-        <v>0.9504629537893287</v>
+        <v>0.89638049699137234</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+        <v>2.758578424188221</v>
+      </c>
+      <c r="L10">
+        <v>0.95046295378932866</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.503780537850173</v>
       </c>
@@ -787,356 +920,392 @@
         <v>2.294474299333698</v>
       </c>
       <c r="C11">
-        <v>0.946889358742395</v>
+        <v>0.94688935874239499</v>
       </c>
       <c r="D11">
-        <v>12.67996507562281</v>
+        <v>11.961279576266319</v>
       </c>
       <c r="E11">
-        <v>0.9556635614890182</v>
+        <v>0.95566356148901821</v>
       </c>
       <c r="F11">
-        <v>1.202933295223012</v>
+        <v>1.1930447900191581</v>
       </c>
       <c r="G11">
-        <v>0.871710600519935</v>
+        <v>1.2029332952230121</v>
       </c>
       <c r="H11">
-        <v>2.294474299333698</v>
+        <v>0.87171060051993499</v>
       </c>
       <c r="I11">
-        <v>0.9008641280691973</v>
+        <v>1.62455340043582</v>
       </c>
       <c r="J11">
-        <v>0.8756869909113432</v>
+        <v>0.90086412806919725</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+        <v>3.1226653805806861</v>
+      </c>
+      <c r="L11">
+        <v>0.87568699091134317</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.9071408788941491</v>
+        <v>0.90714087889414907</v>
       </c>
       <c r="B12">
-        <v>0.9166718825939803</v>
+        <v>0.91667188259398025</v>
       </c>
       <c r="C12">
-        <v>0.9406273588192556</v>
+        <v>0.94062735881925563</v>
       </c>
       <c r="D12">
-        <v>0.8918508317236936</v>
+        <v>0.89667970518960138</v>
       </c>
       <c r="E12">
-        <v>0.9435422041965391</v>
+        <v>0.94354220419653911</v>
       </c>
       <c r="F12">
-        <v>0.8793436643158359</v>
+        <v>0.87228833487593838</v>
       </c>
       <c r="G12">
-        <v>0.860892778611014</v>
+        <v>0.87934366431583588</v>
       </c>
       <c r="H12">
-        <v>0.9166718825939803</v>
+        <v>0.86089277861101399</v>
       </c>
       <c r="I12">
-        <v>0.8973703801442274</v>
+        <v>0.8963375880469856</v>
       </c>
       <c r="J12">
-        <v>0.8295430009453912</v>
+        <v>0.89737038014422743</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Ridge.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.91166301056108168</v>
+      </c>
+      <c r="L12">
+        <v>0.82954300094539124</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.8809580678403913</v>
+        <v>0.88095806784039132</v>
       </c>
       <c r="B13">
-        <v>0.8878802681164989</v>
+        <v>0.88788026811649889</v>
       </c>
       <c r="C13">
-        <v>0.9384045810165905</v>
+        <v>0.93840458101659052</v>
       </c>
       <c r="D13">
-        <v>0.8867136886400678</v>
+        <v>0.87530700880326628</v>
       </c>
       <c r="E13">
-        <v>0.9285249664820698</v>
+        <v>0.92852496648206984</v>
       </c>
       <c r="F13">
-        <v>0.8687650856712619</v>
+        <v>0.87496500420229828</v>
       </c>
       <c r="G13">
+        <v>0.86876508567126187</v>
+      </c>
+      <c r="H13">
         <v>0.8629104147600527</v>
       </c>
-      <c r="H13">
-        <v>0.8878802681164989</v>
-      </c>
       <c r="I13">
-        <v>0.8999008151357532</v>
+        <v>0.87048077016205838</v>
       </c>
       <c r="J13">
-        <v>0.8223466981685359</v>
+        <v>0.89990081513575315</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Ridge.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.90748725536237984</v>
+      </c>
+      <c r="L13">
+        <v>0.82234669816853589</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.4352647192392796</v>
+        <v>0.43526471923927962</v>
       </c>
       <c r="B14">
-        <v>0.3284832075992262</v>
+        <v>0.32848320759922622</v>
       </c>
       <c r="C14">
         <v>0.4381045413668696</v>
       </c>
       <c r="D14">
-        <v>2.915736752168859</v>
+        <v>1.733516188555108</v>
       </c>
       <c r="E14">
-        <v>0.4125423079541368</v>
+        <v>0.41254230795413682</v>
       </c>
       <c r="F14">
-        <v>0.4871211259766258</v>
+        <v>0.52707701191138578</v>
       </c>
       <c r="G14">
+        <v>0.48712112597662582</v>
+      </c>
+      <c r="H14">
         <v>0.3175350983041208</v>
       </c>
-      <c r="H14">
-        <v>0.3284832075992262</v>
-      </c>
       <c r="I14">
-        <v>0.7358773741311826</v>
+        <v>0.4574722542324014</v>
       </c>
       <c r="J14">
+        <v>0.73587737413118259</v>
+      </c>
+      <c r="K14">
+        <v>0.81325211963717214</v>
+      </c>
+      <c r="L14">
         <v>1.457932485908559</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5546924890594682</v>
+        <v>0.55469248905946822</v>
       </c>
       <c r="B15">
-        <v>0.4645075066502123</v>
+        <v>0.46450750665021229</v>
       </c>
       <c r="C15">
-        <v>0.3230292401897588</v>
+        <v>0.32302924018975882</v>
       </c>
       <c r="D15">
-        <v>2.299579004702841</v>
+        <v>3.1713091164480609</v>
       </c>
       <c r="E15">
-        <v>0.2959647118365575</v>
+        <v>0.29596471183655748</v>
       </c>
       <c r="F15">
-        <v>0.5167448737510462</v>
+        <v>0.56812623171248378</v>
       </c>
       <c r="G15">
-        <v>0.2282526381611316</v>
+        <v>0.51674487375104616</v>
       </c>
       <c r="H15">
-        <v>0.4645075066502123</v>
+        <v>0.22825263816113159</v>
       </c>
       <c r="I15">
-        <v>0.4827826722447965</v>
+        <v>0.4361010339950519</v>
       </c>
       <c r="J15">
-        <v>0.8781823608001469</v>
+        <v>0.48278267224479648</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>0.489749808112266</v>
-      </c>
-      <c r="B16">
-        <v>0.5737512773624782</v>
-      </c>
-      <c r="C16">
-        <v>0.3930363793267868</v>
-      </c>
-      <c r="D16">
-        <v>3.234462745273322</v>
-      </c>
-      <c r="E16">
-        <v>0.3719294530039757</v>
-      </c>
-      <c r="F16">
+        <v>0.98286162293807899</v>
+      </c>
+      <c r="L15">
+        <v>0.87818236080014689</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.48974980811226598</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.57375127736247822</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.39303637932678681</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.4410689297761889</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.37192945300397567</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.4404275957663295</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.4966954556579376</v>
       </c>
-      <c r="G16">
-        <v>0.2893792565596126</v>
-      </c>
-      <c r="H16">
-        <v>0.5737512773624782</v>
-      </c>
-      <c r="I16">
-        <v>0.3631436658150651</v>
-      </c>
-      <c r="J16">
-        <v>0.6449768625428509</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="H16" s="2">
+        <v>0.28937925655961261</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.52471397702308398</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.36314366581506508</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.60013418543222696</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.64497686254285092</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.7461356800379499</v>
+        <v>0.74613568003794994</v>
       </c>
       <c r="B17">
-        <v>0.9026845114278299</v>
+        <v>0.90268451142782991</v>
       </c>
       <c r="C17">
-        <v>0.5862360762141031</v>
+        <v>0.58623607621410312</v>
       </c>
       <c r="D17">
-        <v>5.164622747701254</v>
+        <v>4.7637091749007796</v>
       </c>
       <c r="E17">
-        <v>0.568182841369382</v>
+        <v>0.56818284136938202</v>
       </c>
       <c r="F17">
-        <v>0.7012034447749392</v>
+        <v>0.72143965862923198</v>
       </c>
       <c r="G17">
-        <v>0.4889092115213509</v>
+        <v>0.70120344477493923</v>
       </c>
       <c r="H17">
-        <v>0.9026845114278299</v>
+        <v>0.48890921152135092</v>
       </c>
       <c r="I17">
-        <v>0.6082166949739957</v>
+        <v>0.77709414536930421</v>
       </c>
       <c r="J17">
-        <v>0.8708662401542333</v>
+        <v>0.60821669497399566</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+        <v>1.13411173866631</v>
+      </c>
+      <c r="L17">
+        <v>0.87086624015423331</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.540082641358833</v>
+        <v>1.5400826413588331</v>
       </c>
       <c r="B18">
-        <v>2.40832152285226</v>
+        <v>2.4083215228522601</v>
       </c>
       <c r="C18">
-        <v>1.04584632248948</v>
+        <v>1.0458463224894801</v>
       </c>
       <c r="D18">
-        <v>20.31849614071441</v>
+        <v>20.578580564609041</v>
       </c>
       <c r="E18">
-        <v>1.012363683928632</v>
+        <v>1.0123636839286321</v>
       </c>
       <c r="F18">
+        <v>1.412008728628944</v>
+      </c>
+      <c r="G18">
         <v>1.48446043934615</v>
       </c>
-      <c r="G18">
-        <v>0.9552547470842607</v>
-      </c>
       <c r="H18">
-        <v>2.40832152285226</v>
+        <v>0.95525474708426072</v>
       </c>
       <c r="I18">
+        <v>1.7340058299722829</v>
+      </c>
+      <c r="J18">
         <v>1.268148702726388</v>
       </c>
-      <c r="J18">
-        <v>2.838732617552718</v>
-      </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+        <v>3.1226653805806861</v>
+      </c>
+      <c r="L18">
+        <v>2.8387326175527181</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.3940410780078286</v>
+        <v>0.39404107800782862</v>
       </c>
       <c r="B19">
-        <v>0.3284832075992262</v>
+        <v>0.32848320759922622</v>
       </c>
       <c r="C19">
-        <v>0.3230292401897588</v>
+        <v>0.32302924018975882</v>
       </c>
       <c r="D19">
-        <v>0.8867136886400678</v>
+        <v>0.69629025414949874</v>
       </c>
       <c r="E19">
-        <v>0.2959647118365575</v>
+        <v>0.29596471183655748</v>
       </c>
       <c r="F19">
+        <v>0.4404275957663295</v>
+      </c>
+      <c r="G19">
         <v>0.1185935989866265</v>
       </c>
-      <c r="G19">
-        <v>0.2282526381611316</v>
-      </c>
       <c r="H19">
-        <v>0.3284832075992262</v>
+        <v>0.22825263816113159</v>
       </c>
       <c r="I19">
-        <v>0.3631436658150651</v>
+        <v>0.11022913107047989</v>
       </c>
       <c r="J19">
-        <v>0.6449768625428509</v>
+        <v>0.36314366581506508</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
+        <v>0.29974049367745609</v>
+      </c>
+      <c r="L19">
+        <v>0.64497686254285092</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
